--- a/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_EQ.xlsx
+++ b/VersionRecords/Version 5.3.2 20170228/版本Bug和特性计划及评审表v5.3.2_EQ.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="118">
   <si>
     <t>No</t>
   </si>
@@ -364,6 +364,55 @@
   </si>
   <si>
     <t>找房优选品牌筛选优化</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-102</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>EQ-</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>102</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-198</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-198</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-198</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-198</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-198</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-597</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ-597</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -371,7 +420,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -509,6 +558,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -758,7 +815,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +1044,33 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,32 +1098,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1070,7 +1130,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -1416,15 +1476,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="48" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="45.75" style="93" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="84" customWidth="1"/>
     <col min="5" max="5" width="15" style="48" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="48" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="48" customWidth="1"/>
@@ -1456,7 +1516,7 @@
       <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="76" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="51" t="s">
@@ -1527,7 +1587,7 @@
       <c r="C2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="77" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="53" t="s">
@@ -1570,7 +1630,9 @@
       <c r="R2" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="65"/>
+      <c r="S2" s="94" t="s">
+        <v>109</v>
+      </c>
       <c r="T2" s="65"/>
       <c r="U2" s="56"/>
       <c r="V2" s="64"/>
@@ -1587,7 +1649,7 @@
       <c r="C3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="77" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="53" t="s">
@@ -1630,7 +1692,9 @@
       <c r="R3" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="56"/>
+      <c r="S3" s="94" t="s">
+        <v>110</v>
+      </c>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="64"/>
@@ -1647,7 +1711,7 @@
       <c r="C4" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="77" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="53" t="s">
@@ -1690,7 +1754,9 @@
       <c r="R4" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S4" s="56"/>
+      <c r="S4" s="94" t="s">
+        <v>111</v>
+      </c>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="64"/>
@@ -1707,7 +1773,7 @@
       <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="77" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="53" t="s">
@@ -1750,7 +1816,9 @@
       <c r="R5" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S5" s="56"/>
+      <c r="S5" s="94" t="s">
+        <v>112</v>
+      </c>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="64"/>
@@ -1767,7 +1835,7 @@
       <c r="C6" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="77" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="53" t="s">
@@ -1810,7 +1878,9 @@
       <c r="R6" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="94" t="s">
+        <v>111</v>
+      </c>
       <c r="T6" s="56"/>
       <c r="U6" s="56"/>
       <c r="V6" s="64"/>
@@ -1827,7 +1897,7 @@
       <c r="C7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="77" t="s">
         <v>48</v>
       </c>
       <c r="E7" s="53" t="s">
@@ -1870,7 +1940,9 @@
       <c r="R7" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S7" s="56"/>
+      <c r="S7" s="94" t="s">
+        <v>111</v>
+      </c>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="64"/>
@@ -1887,7 +1959,7 @@
       <c r="C8" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="77" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="53" t="s">
@@ -1930,7 +2002,9 @@
       <c r="R8" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S8" s="56"/>
+      <c r="S8" s="94" t="s">
+        <v>113</v>
+      </c>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="64"/>
@@ -1947,7 +2021,7 @@
       <c r="C9" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="78" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="53" t="s">
@@ -1990,7 +2064,9 @@
       <c r="R9" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S9" s="67"/>
+      <c r="S9" s="94" t="s">
+        <v>111</v>
+      </c>
       <c r="T9" s="67"/>
       <c r="U9" s="67"/>
       <c r="V9" s="64"/>
@@ -2007,7 +2083,7 @@
       <c r="C10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="77" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="53" t="s">
@@ -2050,7 +2126,9 @@
       <c r="R10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S10" s="56"/>
+      <c r="S10" s="94" t="s">
+        <v>114</v>
+      </c>
       <c r="T10" s="56"/>
       <c r="U10" s="56"/>
       <c r="V10" s="64"/>
@@ -2067,7 +2145,7 @@
       <c r="C11" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="77" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="53" t="s">
@@ -2110,7 +2188,9 @@
       <c r="R11" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="56"/>
+      <c r="S11" s="94" t="s">
+        <v>115</v>
+      </c>
       <c r="T11" s="56"/>
       <c r="U11" s="56"/>
       <c r="V11" s="64"/>
@@ -2127,7 +2207,7 @@
       <c r="C12" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="77" t="s">
         <v>58</v>
       </c>
       <c r="E12" s="53" t="s">
@@ -2170,7 +2250,9 @@
       <c r="R12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S12" s="56"/>
+      <c r="S12" s="94" t="s">
+        <v>116</v>
+      </c>
       <c r="T12" s="56"/>
       <c r="U12" s="56"/>
       <c r="V12" s="64"/>
@@ -2187,7 +2269,7 @@
       <c r="C13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="77" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="53" t="s">
@@ -2218,7 +2300,9 @@
       <c r="N13" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="O13" s="53"/>
+      <c r="O13" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="P13" s="59" t="s">
         <v>33</v>
       </c>
@@ -2228,7 +2312,9 @@
       <c r="R13" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="56"/>
+      <c r="S13" s="94" t="s">
+        <v>116</v>
+      </c>
       <c r="T13" s="56"/>
       <c r="U13" s="56"/>
       <c r="V13" s="64"/>
@@ -2245,7 +2331,7 @@
       <c r="C14" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="77" t="s">
         <v>107</v>
       </c>
       <c r="E14" s="53" t="s">
@@ -2288,7 +2374,9 @@
       <c r="R14" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="S14" s="56"/>
+      <c r="S14" s="94" t="s">
+        <v>117</v>
+      </c>
       <c r="T14" s="56"/>
       <c r="U14" s="56"/>
       <c r="V14" s="64"/>
@@ -2305,7 +2393,7 @@
       <c r="C15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="77" t="s">
         <v>108</v>
       </c>
       <c r="E15" s="53" t="s">
@@ -2349,7 +2437,9 @@
         <v>34</v>
       </c>
       <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
+      <c r="T15" s="94">
+        <v>9648</v>
+      </c>
       <c r="U15" s="56"/>
       <c r="V15" s="56"/>
       <c r="W15" s="59"/>
@@ -2359,7 +2449,7 @@
       <c r="A16" s="52"/>
       <c r="B16" s="52"/>
       <c r="C16" s="52"/>
-      <c r="D16" s="88"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
@@ -2385,7 +2475,7 @@
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
       <c r="C17" s="52"/>
-      <c r="D17" s="88"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
@@ -2411,7 +2501,7 @@
       <c r="A18" s="52"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="88"/>
+      <c r="D18" s="79"/>
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
       <c r="G18" s="53"/>
@@ -2436,7 +2526,7 @@
       <c r="A19" s="52"/>
       <c r="B19" s="52"/>
       <c r="C19" s="52"/>
-      <c r="D19" s="88"/>
+      <c r="D19" s="79"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
       <c r="G19" s="53"/>
@@ -2461,7 +2551,7 @@
       <c r="A20" s="52"/>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
-      <c r="D20" s="88"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
       <c r="G20" s="53"/>
@@ -2486,7 +2576,7 @@
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
       <c r="C21" s="52"/>
-      <c r="D21" s="89"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="53"/>
       <c r="F21" s="55"/>
       <c r="G21" s="53"/>
@@ -2511,7 +2601,7 @@
       <c r="A22" s="52"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="89"/>
+      <c r="D22" s="80"/>
       <c r="E22" s="53"/>
       <c r="F22" s="55"/>
       <c r="G22" s="53"/>
@@ -2536,7 +2626,7 @@
       <c r="A23" s="52"/>
       <c r="B23" s="52"/>
       <c r="C23" s="52"/>
-      <c r="D23" s="89"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="53"/>
       <c r="F23" s="55"/>
       <c r="G23" s="53"/>
@@ -2561,7 +2651,7 @@
       <c r="A24" s="52"/>
       <c r="B24" s="52"/>
       <c r="C24" s="52"/>
-      <c r="D24" s="89"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="53"/>
       <c r="F24" s="55"/>
       <c r="G24" s="53"/>
@@ -2586,7 +2676,7 @@
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
       <c r="C25" s="52"/>
-      <c r="D25" s="89"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="53"/>
       <c r="F25" s="55"/>
       <c r="G25" s="53"/>
@@ -2611,7 +2701,7 @@
       <c r="A26" s="52"/>
       <c r="B26" s="52"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="89"/>
+      <c r="D26" s="80"/>
       <c r="E26" s="53"/>
       <c r="F26" s="55"/>
       <c r="G26" s="53"/>
@@ -2636,7 +2726,7 @@
       <c r="A27" s="52"/>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="89"/>
+      <c r="D27" s="80"/>
       <c r="E27" s="53"/>
       <c r="F27" s="55"/>
       <c r="G27" s="53"/>
@@ -2661,7 +2751,7 @@
       <c r="A28" s="52"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
-      <c r="D28" s="89"/>
+      <c r="D28" s="80"/>
       <c r="E28" s="53"/>
       <c r="F28" s="55"/>
       <c r="G28" s="53"/>
@@ -2686,7 +2776,7 @@
       <c r="A29" s="52"/>
       <c r="B29" s="52"/>
       <c r="C29" s="52"/>
-      <c r="D29" s="89"/>
+      <c r="D29" s="80"/>
       <c r="E29" s="53"/>
       <c r="F29" s="55"/>
       <c r="G29" s="53"/>
@@ -2711,7 +2801,7 @@
       <c r="A30" s="52"/>
       <c r="B30" s="52"/>
       <c r="C30" s="52"/>
-      <c r="D30" s="89"/>
+      <c r="D30" s="80"/>
       <c r="E30" s="53"/>
       <c r="F30" s="55"/>
       <c r="G30" s="53"/>
@@ -2736,7 +2826,7 @@
       <c r="A31" s="52"/>
       <c r="B31" s="52"/>
       <c r="C31" s="52"/>
-      <c r="D31" s="89"/>
+      <c r="D31" s="80"/>
       <c r="E31" s="53"/>
       <c r="F31" s="55"/>
       <c r="G31" s="53"/>
@@ -2761,7 +2851,7 @@
       <c r="A32" s="52"/>
       <c r="B32" s="52"/>
       <c r="C32" s="52"/>
-      <c r="D32" s="89"/>
+      <c r="D32" s="80"/>
       <c r="E32" s="53"/>
       <c r="F32" s="55"/>
       <c r="G32" s="53"/>
@@ -2786,7 +2876,7 @@
       <c r="A33" s="52"/>
       <c r="B33" s="52"/>
       <c r="C33" s="52"/>
-      <c r="D33" s="89"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="53"/>
       <c r="F33" s="55"/>
       <c r="G33" s="53"/>
@@ -2811,7 +2901,7 @@
       <c r="A34" s="52"/>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
-      <c r="D34" s="88"/>
+      <c r="D34" s="79"/>
       <c r="E34" s="53"/>
       <c r="F34" s="53"/>
       <c r="G34" s="53"/>
@@ -2836,7 +2926,7 @@
       <c r="A35" s="52"/>
       <c r="B35" s="52"/>
       <c r="C35" s="52"/>
-      <c r="D35" s="88"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
       <c r="G35" s="53"/>
@@ -2861,7 +2951,7 @@
       <c r="A36" s="52"/>
       <c r="B36" s="52"/>
       <c r="C36" s="52"/>
-      <c r="D36" s="88"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
       <c r="G36" s="53"/>
@@ -2886,7 +2976,7 @@
       <c r="A37" s="52"/>
       <c r="B37" s="52"/>
       <c r="C37" s="52"/>
-      <c r="D37" s="88"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
       <c r="G37" s="53"/>
@@ -2911,7 +3001,7 @@
       <c r="A38" s="52"/>
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="88"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
       <c r="G38" s="53"/>
@@ -2936,7 +3026,7 @@
       <c r="A39" s="52"/>
       <c r="B39" s="52"/>
       <c r="C39" s="52"/>
-      <c r="D39" s="88"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
       <c r="G39" s="53"/>
@@ -2961,7 +3051,7 @@
       <c r="A40" s="52"/>
       <c r="B40" s="52"/>
       <c r="C40" s="52"/>
-      <c r="D40" s="88"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
       <c r="G40" s="53"/>
@@ -2986,7 +3076,7 @@
       <c r="A41" s="52"/>
       <c r="B41" s="52"/>
       <c r="C41" s="52"/>
-      <c r="D41" s="88"/>
+      <c r="D41" s="79"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
       <c r="G41" s="53"/>
@@ -3011,7 +3101,7 @@
       <c r="A42" s="52"/>
       <c r="B42" s="52"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="88"/>
+      <c r="D42" s="79"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
       <c r="G42" s="53"/>
@@ -3036,7 +3126,7 @@
       <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
-      <c r="D43" s="88"/>
+      <c r="D43" s="79"/>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
       <c r="G43" s="53"/>
@@ -3061,7 +3151,7 @@
       <c r="A44" s="52"/>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>
-      <c r="D44" s="88"/>
+      <c r="D44" s="79"/>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
       <c r="G44" s="53"/>
@@ -3086,7 +3176,7 @@
       <c r="A45" s="52"/>
       <c r="B45" s="52"/>
       <c r="C45" s="52"/>
-      <c r="D45" s="90"/>
+      <c r="D45" s="81"/>
       <c r="E45" s="53"/>
       <c r="F45" s="53"/>
       <c r="G45" s="53"/>
@@ -3111,7 +3201,7 @@
       <c r="A46" s="52"/>
       <c r="B46" s="52"/>
       <c r="C46" s="52"/>
-      <c r="D46" s="90"/>
+      <c r="D46" s="81"/>
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
       <c r="G46" s="53"/>
@@ -3136,7 +3226,7 @@
       <c r="A47" s="52"/>
       <c r="B47" s="52"/>
       <c r="C47" s="52"/>
-      <c r="D47" s="91"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
       <c r="G47" s="53"/>
@@ -3161,7 +3251,7 @@
       <c r="A48" s="52"/>
       <c r="B48" s="52"/>
       <c r="C48" s="52"/>
-      <c r="D48" s="91"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="53"/>
       <c r="F48" s="53"/>
       <c r="G48" s="53"/>
@@ -3186,7 +3276,7 @@
       <c r="A49" s="52"/>
       <c r="B49" s="52"/>
       <c r="C49" s="52"/>
-      <c r="D49" s="91"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="53"/>
       <c r="F49" s="53"/>
       <c r="G49" s="53"/>
@@ -3211,7 +3301,7 @@
       <c r="A50" s="52"/>
       <c r="B50" s="52"/>
       <c r="C50" s="52"/>
-      <c r="D50" s="91"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="53"/>
       <c r="F50" s="53"/>
       <c r="G50" s="53"/>
@@ -3236,7 +3326,7 @@
       <c r="A51" s="52"/>
       <c r="B51" s="52"/>
       <c r="C51" s="52"/>
-      <c r="D51" s="91"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
       <c r="G51" s="53"/>
@@ -3261,7 +3351,7 @@
       <c r="A52" s="52"/>
       <c r="B52" s="52"/>
       <c r="C52" s="52"/>
-      <c r="D52" s="91"/>
+      <c r="D52" s="82"/>
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
@@ -3286,7 +3376,7 @@
       <c r="A53" s="52"/>
       <c r="B53" s="52"/>
       <c r="C53" s="52"/>
-      <c r="D53" s="91"/>
+      <c r="D53" s="82"/>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
       <c r="G53" s="53"/>
@@ -3311,7 +3401,7 @@
       <c r="A54" s="56"/>
       <c r="B54" s="56"/>
       <c r="C54" s="56"/>
-      <c r="D54" s="92"/>
+      <c r="D54" s="83"/>
       <c r="E54" s="56"/>
       <c r="F54" s="53"/>
       <c r="G54" s="53"/>
@@ -3336,7 +3426,7 @@
       <c r="A55" s="56"/>
       <c r="B55" s="56"/>
       <c r="C55" s="56"/>
-      <c r="D55" s="92"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="56"/>
       <c r="F55" s="53"/>
       <c r="G55" s="53"/>
@@ -3361,7 +3451,7 @@
       <c r="A56" s="56"/>
       <c r="B56" s="56"/>
       <c r="C56" s="56"/>
-      <c r="D56" s="92"/>
+      <c r="D56" s="83"/>
       <c r="E56" s="56"/>
       <c r="F56" s="53"/>
       <c r="G56" s="53"/>
@@ -3386,7 +3476,7 @@
       <c r="A57" s="56"/>
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
-      <c r="D57" s="92"/>
+      <c r="D57" s="83"/>
       <c r="E57" s="56"/>
       <c r="F57" s="53"/>
       <c r="G57" s="53"/>
@@ -3411,7 +3501,7 @@
       <c r="A58" s="56"/>
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
-      <c r="D58" s="92"/>
+      <c r="D58" s="83"/>
       <c r="E58" s="56"/>
       <c r="F58" s="53"/>
       <c r="G58" s="53"/>
@@ -3436,7 +3526,7 @@
       <c r="A59" s="56"/>
       <c r="B59" s="56"/>
       <c r="C59" s="56"/>
-      <c r="D59" s="92"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="56"/>
       <c r="F59" s="53"/>
       <c r="G59" s="53"/>
@@ -3461,7 +3551,7 @@
       <c r="A60" s="56"/>
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
-      <c r="D60" s="92"/>
+      <c r="D60" s="83"/>
       <c r="E60" s="56"/>
       <c r="F60" s="53"/>
       <c r="G60" s="53"/>
@@ -3486,7 +3576,7 @@
       <c r="A61" s="56"/>
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
-      <c r="D61" s="92"/>
+      <c r="D61" s="83"/>
       <c r="E61" s="56"/>
       <c r="F61" s="53"/>
       <c r="G61" s="53"/>
@@ -3511,7 +3601,7 @@
       <c r="A62" s="56"/>
       <c r="B62" s="56"/>
       <c r="C62" s="56"/>
-      <c r="D62" s="92"/>
+      <c r="D62" s="83"/>
       <c r="E62" s="56"/>
       <c r="F62" s="53"/>
       <c r="G62" s="53"/>
@@ -3536,7 +3626,7 @@
       <c r="A63" s="56"/>
       <c r="B63" s="56"/>
       <c r="C63" s="56"/>
-      <c r="D63" s="92"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="56"/>
       <c r="F63" s="53"/>
       <c r="G63" s="53"/>
@@ -3561,7 +3651,7 @@
       <c r="A64" s="56"/>
       <c r="B64" s="56"/>
       <c r="C64" s="56"/>
-      <c r="D64" s="92"/>
+      <c r="D64" s="83"/>
       <c r="E64" s="56"/>
       <c r="F64" s="53"/>
       <c r="G64" s="53"/>
@@ -3586,7 +3676,7 @@
       <c r="A65" s="56"/>
       <c r="B65" s="56"/>
       <c r="C65" s="56"/>
-      <c r="D65" s="92"/>
+      <c r="D65" s="83"/>
       <c r="E65" s="56"/>
       <c r="F65" s="53"/>
       <c r="G65" s="53"/>
@@ -3611,7 +3701,7 @@
       <c r="A66" s="56"/>
       <c r="B66" s="56"/>
       <c r="C66" s="56"/>
-      <c r="D66" s="92"/>
+      <c r="D66" s="83"/>
       <c r="E66" s="56"/>
       <c r="F66" s="53"/>
       <c r="G66" s="53"/>
@@ -3636,7 +3726,7 @@
       <c r="A67" s="56"/>
       <c r="B67" s="56"/>
       <c r="C67" s="56"/>
-      <c r="D67" s="92"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="56"/>
       <c r="F67" s="53"/>
       <c r="G67" s="53"/>
@@ -3661,7 +3751,7 @@
       <c r="A68" s="56"/>
       <c r="B68" s="56"/>
       <c r="C68" s="56"/>
-      <c r="D68" s="92"/>
+      <c r="D68" s="83"/>
       <c r="E68" s="56"/>
       <c r="F68" s="53"/>
       <c r="G68" s="53"/>
@@ -3686,7 +3776,7 @@
       <c r="A69" s="56"/>
       <c r="B69" s="56"/>
       <c r="C69" s="56"/>
-      <c r="D69" s="92"/>
+      <c r="D69" s="83"/>
       <c r="E69" s="56"/>
       <c r="F69" s="53"/>
       <c r="G69" s="53"/>
@@ -3711,7 +3801,7 @@
       <c r="A70" s="56"/>
       <c r="B70" s="56"/>
       <c r="C70" s="56"/>
-      <c r="D70" s="92"/>
+      <c r="D70" s="83"/>
       <c r="E70" s="56"/>
       <c r="F70" s="53"/>
       <c r="G70" s="56"/>
@@ -3736,7 +3826,7 @@
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
-      <c r="D71" s="92"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="56"/>
       <c r="F71" s="53"/>
       <c r="G71" s="56"/>
@@ -3761,7 +3851,7 @@
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
-      <c r="D72" s="92"/>
+      <c r="D72" s="83"/>
       <c r="E72" s="56"/>
       <c r="F72" s="53"/>
       <c r="G72" s="56"/>
@@ -3786,7 +3876,7 @@
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
-      <c r="D73" s="92"/>
+      <c r="D73" s="83"/>
       <c r="E73" s="56"/>
       <c r="F73" s="53"/>
       <c r="G73" s="56"/>
@@ -3811,7 +3901,7 @@
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
-      <c r="D74" s="92"/>
+      <c r="D74" s="83"/>
       <c r="E74" s="56"/>
       <c r="F74" s="53"/>
       <c r="G74" s="56"/>
@@ -3836,7 +3926,7 @@
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
-      <c r="D75" s="92"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="56"/>
       <c r="F75" s="53"/>
       <c r="G75" s="56"/>
@@ -3861,7 +3951,7 @@
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
-      <c r="D76" s="92"/>
+      <c r="D76" s="83"/>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
       <c r="G76" s="56"/>
@@ -3886,7 +3976,7 @@
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
-      <c r="D77" s="92"/>
+      <c r="D77" s="83"/>
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
       <c r="G77" s="56"/>
@@ -3911,7 +4001,7 @@
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
-      <c r="D78" s="92"/>
+      <c r="D78" s="83"/>
       <c r="E78" s="56"/>
       <c r="F78" s="56"/>
       <c r="G78" s="56"/>
@@ -3936,7 +4026,7 @@
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
-      <c r="D79" s="92"/>
+      <c r="D79" s="83"/>
       <c r="E79" s="56"/>
       <c r="F79" s="56"/>
       <c r="G79" s="56"/>
@@ -3961,7 +4051,7 @@
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
-      <c r="D80" s="92"/>
+      <c r="D80" s="83"/>
       <c r="E80" s="56"/>
       <c r="F80" s="56"/>
       <c r="G80" s="56"/>
@@ -3986,7 +4076,7 @@
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
-      <c r="D81" s="92"/>
+      <c r="D81" s="83"/>
       <c r="E81" s="56"/>
       <c r="F81" s="56"/>
       <c r="G81" s="56"/>
@@ -4011,7 +4101,7 @@
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
-      <c r="D82" s="92"/>
+      <c r="D82" s="83"/>
       <c r="E82" s="56"/>
       <c r="F82" s="56"/>
       <c r="G82" s="56"/>
@@ -4036,7 +4126,7 @@
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
-      <c r="D83" s="92"/>
+      <c r="D83" s="83"/>
       <c r="E83" s="56"/>
       <c r="F83" s="56"/>
       <c r="G83" s="56"/>
@@ -4061,7 +4151,7 @@
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
-      <c r="D84" s="92"/>
+      <c r="D84" s="83"/>
       <c r="E84" s="56"/>
       <c r="F84" s="56"/>
       <c r="G84" s="56"/>
@@ -4086,7 +4176,7 @@
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
-      <c r="D85" s="92"/>
+      <c r="D85" s="83"/>
       <c r="E85" s="56"/>
       <c r="F85" s="56"/>
       <c r="G85" s="56"/>
@@ -4111,7 +4201,7 @@
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
-      <c r="D86" s="92"/>
+      <c r="D86" s="83"/>
       <c r="E86" s="56"/>
       <c r="F86" s="56"/>
       <c r="G86" s="56"/>
@@ -4136,7 +4226,7 @@
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
-      <c r="D87" s="92"/>
+      <c r="D87" s="83"/>
       <c r="E87" s="56"/>
       <c r="F87" s="56"/>
       <c r="G87" s="56"/>
@@ -4161,7 +4251,7 @@
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
-      <c r="D88" s="92"/>
+      <c r="D88" s="83"/>
       <c r="E88" s="56"/>
       <c r="F88" s="56"/>
       <c r="G88" s="56"/>
@@ -4186,7 +4276,7 @@
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
-      <c r="D89" s="92"/>
+      <c r="D89" s="83"/>
       <c r="E89" s="56"/>
       <c r="F89" s="56"/>
       <c r="G89" s="56"/>
@@ -4211,7 +4301,7 @@
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
-      <c r="D90" s="92"/>
+      <c r="D90" s="83"/>
       <c r="E90" s="56"/>
       <c r="F90" s="56"/>
       <c r="G90" s="56"/>
@@ -4236,7 +4326,7 @@
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
-      <c r="D91" s="92"/>
+      <c r="D91" s="83"/>
       <c r="E91" s="56"/>
       <c r="F91" s="56"/>
       <c r="G91" s="56"/>
@@ -4261,7 +4351,7 @@
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
-      <c r="D92" s="92"/>
+      <c r="D92" s="83"/>
       <c r="E92" s="56"/>
       <c r="F92" s="56"/>
       <c r="G92" s="56"/>
@@ -4286,7 +4376,7 @@
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
-      <c r="D93" s="92"/>
+      <c r="D93" s="83"/>
       <c r="E93" s="56"/>
       <c r="F93" s="56"/>
       <c r="G93" s="56"/>
@@ -4311,7 +4401,7 @@
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
-      <c r="D94" s="92"/>
+      <c r="D94" s="83"/>
       <c r="E94" s="56"/>
       <c r="F94" s="56"/>
       <c r="G94" s="56"/>
@@ -4336,7 +4426,7 @@
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
-      <c r="D95" s="92"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="56"/>
       <c r="F95" s="56"/>
       <c r="G95" s="56"/>
@@ -4361,7 +4451,7 @@
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
-      <c r="D96" s="92"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="56"/>
       <c r="F96" s="56"/>
       <c r="G96" s="56"/>
@@ -4386,7 +4476,7 @@
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
-      <c r="D97" s="92"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
       <c r="G97" s="56"/>
@@ -4411,7 +4501,7 @@
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
-      <c r="D98" s="92"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="56"/>
       <c r="F98" s="56"/>
       <c r="G98" s="56"/>
@@ -4436,7 +4526,7 @@
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
-      <c r="D99" s="92"/>
+      <c r="D99" s="83"/>
       <c r="E99" s="56"/>
       <c r="F99" s="56"/>
       <c r="G99" s="56"/>
@@ -4461,7 +4551,7 @@
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
-      <c r="D100" s="92"/>
+      <c r="D100" s="83"/>
       <c r="E100" s="56"/>
       <c r="F100" s="56"/>
       <c r="G100" s="56"/>
@@ -4486,7 +4576,7 @@
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
-      <c r="D101" s="92"/>
+      <c r="D101" s="83"/>
       <c r="E101" s="56"/>
       <c r="F101" s="56"/>
       <c r="G101" s="56"/>
@@ -4511,7 +4601,7 @@
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
-      <c r="D102" s="92"/>
+      <c r="D102" s="83"/>
       <c r="E102" s="56"/>
       <c r="F102" s="56"/>
       <c r="G102" s="56"/>
@@ -4536,7 +4626,7 @@
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
-      <c r="D103" s="92"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="56"/>
       <c r="F103" s="56"/>
       <c r="G103" s="56"/>
@@ -4561,7 +4651,7 @@
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
-      <c r="D104" s="92"/>
+      <c r="D104" s="83"/>
       <c r="E104" s="56"/>
       <c r="F104" s="56"/>
       <c r="G104" s="56"/>
@@ -4586,7 +4676,7 @@
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
-      <c r="D105" s="92"/>
+      <c r="D105" s="83"/>
       <c r="E105" s="56"/>
       <c r="F105" s="56"/>
       <c r="G105" s="56"/>
@@ -4611,7 +4701,7 @@
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
-      <c r="D106" s="92"/>
+      <c r="D106" s="83"/>
       <c r="E106" s="56"/>
       <c r="F106" s="56"/>
       <c r="G106" s="56"/>
@@ -4636,7 +4726,7 @@
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
-      <c r="D107" s="92"/>
+      <c r="D107" s="83"/>
       <c r="E107" s="56"/>
       <c r="F107" s="56"/>
       <c r="G107" s="56"/>
@@ -4661,7 +4751,7 @@
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
-      <c r="D108" s="92"/>
+      <c r="D108" s="83"/>
       <c r="E108" s="56"/>
       <c r="F108" s="56"/>
       <c r="G108" s="56"/>
@@ -4686,7 +4776,7 @@
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
-      <c r="D109" s="92"/>
+      <c r="D109" s="83"/>
       <c r="E109" s="56"/>
       <c r="F109" s="56"/>
       <c r="G109" s="56"/>
@@ -4711,7 +4801,7 @@
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
-      <c r="D110" s="92"/>
+      <c r="D110" s="83"/>
       <c r="E110" s="56"/>
       <c r="F110" s="56"/>
       <c r="G110" s="56"/>
@@ -4736,7 +4826,7 @@
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
-      <c r="D111" s="92"/>
+      <c r="D111" s="83"/>
       <c r="E111" s="56"/>
       <c r="F111" s="56"/>
       <c r="G111" s="56"/>
@@ -4761,7 +4851,7 @@
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
-      <c r="D112" s="92"/>
+      <c r="D112" s="83"/>
       <c r="E112" s="56"/>
       <c r="F112" s="56"/>
       <c r="G112" s="56"/>
@@ -4786,7 +4876,7 @@
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
-      <c r="D113" s="92"/>
+      <c r="D113" s="83"/>
       <c r="E113" s="56"/>
       <c r="F113" s="56"/>
       <c r="G113" s="56"/>
@@ -4811,7 +4901,7 @@
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
-      <c r="D114" s="92"/>
+      <c r="D114" s="83"/>
       <c r="E114" s="56"/>
       <c r="F114" s="56"/>
       <c r="G114" s="56"/>
@@ -4836,7 +4926,7 @@
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
-      <c r="D115" s="92"/>
+      <c r="D115" s="83"/>
       <c r="E115" s="56"/>
       <c r="F115" s="56"/>
       <c r="G115" s="56"/>
@@ -4861,7 +4951,7 @@
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
-      <c r="D116" s="92"/>
+      <c r="D116" s="83"/>
       <c r="E116" s="56"/>
       <c r="F116" s="56"/>
       <c r="G116" s="56"/>
@@ -4886,7 +4976,7 @@
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
-      <c r="D117" s="92"/>
+      <c r="D117" s="83"/>
       <c r="E117" s="56"/>
       <c r="F117" s="56"/>
       <c r="G117" s="56"/>
@@ -4911,7 +5001,7 @@
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
-      <c r="D118" s="92"/>
+      <c r="D118" s="83"/>
       <c r="E118" s="56"/>
       <c r="F118" s="56"/>
       <c r="G118" s="56"/>
@@ -4936,7 +5026,7 @@
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
-      <c r="D119" s="92"/>
+      <c r="D119" s="83"/>
       <c r="E119" s="56"/>
       <c r="F119" s="56"/>
       <c r="G119" s="56"/>
@@ -4961,7 +5051,7 @@
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
-      <c r="D120" s="92"/>
+      <c r="D120" s="83"/>
       <c r="E120" s="56"/>
       <c r="F120" s="56"/>
       <c r="G120" s="56"/>
@@ -4986,7 +5076,7 @@
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
-      <c r="D121" s="92"/>
+      <c r="D121" s="83"/>
       <c r="E121" s="56"/>
       <c r="F121" s="56"/>
       <c r="G121" s="56"/>
@@ -5011,7 +5101,7 @@
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
-      <c r="D122" s="92"/>
+      <c r="D122" s="83"/>
       <c r="E122" s="56"/>
       <c r="F122" s="56"/>
       <c r="G122" s="56"/>
@@ -5036,7 +5126,7 @@
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
-      <c r="D123" s="92"/>
+      <c r="D123" s="83"/>
       <c r="E123" s="56"/>
       <c r="F123" s="56"/>
       <c r="G123" s="56"/>
@@ -5061,7 +5151,7 @@
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
-      <c r="D124" s="92"/>
+      <c r="D124" s="83"/>
       <c r="E124" s="56"/>
       <c r="F124" s="56"/>
       <c r="G124" s="56"/>
@@ -5086,7 +5176,7 @@
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
-      <c r="D125" s="92"/>
+      <c r="D125" s="83"/>
       <c r="E125" s="56"/>
       <c r="F125" s="56"/>
       <c r="G125" s="56"/>
@@ -5111,7 +5201,7 @@
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
-      <c r="D126" s="92"/>
+      <c r="D126" s="83"/>
       <c r="E126" s="56"/>
       <c r="F126" s="56"/>
       <c r="G126" s="56"/>
@@ -5136,7 +5226,7 @@
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
-      <c r="D127" s="92"/>
+      <c r="D127" s="83"/>
       <c r="E127" s="56"/>
       <c r="F127" s="56"/>
       <c r="G127" s="56"/>
@@ -5161,7 +5251,7 @@
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
-      <c r="D128" s="92"/>
+      <c r="D128" s="83"/>
       <c r="E128" s="56"/>
       <c r="F128" s="56"/>
       <c r="G128" s="56"/>
@@ -5186,7 +5276,7 @@
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
-      <c r="D129" s="92"/>
+      <c r="D129" s="83"/>
       <c r="E129" s="56"/>
       <c r="F129" s="56"/>
       <c r="G129" s="56"/>
@@ -5211,7 +5301,7 @@
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
-      <c r="D130" s="92"/>
+      <c r="D130" s="83"/>
       <c r="E130" s="56"/>
       <c r="F130" s="56"/>
       <c r="G130" s="56"/>
@@ -5236,7 +5326,7 @@
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
-      <c r="D131" s="92"/>
+      <c r="D131" s="83"/>
       <c r="E131" s="56"/>
       <c r="F131" s="56"/>
       <c r="G131" s="56"/>
@@ -5261,7 +5351,7 @@
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
-      <c r="D132" s="92"/>
+      <c r="D132" s="83"/>
       <c r="E132" s="56"/>
       <c r="F132" s="56"/>
       <c r="G132" s="56"/>
@@ -5286,7 +5376,7 @@
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
-      <c r="D133" s="92"/>
+      <c r="D133" s="83"/>
       <c r="E133" s="56"/>
       <c r="F133" s="56"/>
       <c r="G133" s="56"/>
@@ -5311,7 +5401,7 @@
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
-      <c r="D134" s="92"/>
+      <c r="D134" s="83"/>
       <c r="E134" s="56"/>
       <c r="F134" s="56"/>
       <c r="G134" s="56"/>
@@ -5336,7 +5426,7 @@
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
-      <c r="D135" s="92"/>
+      <c r="D135" s="83"/>
       <c r="E135" s="56"/>
       <c r="F135" s="56"/>
       <c r="G135" s="56"/>
@@ -5361,7 +5451,7 @@
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
-      <c r="D136" s="92"/>
+      <c r="D136" s="83"/>
       <c r="E136" s="56"/>
       <c r="F136" s="56"/>
       <c r="G136" s="56"/>
@@ -5382,7 +5472,7 @@
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
-      <c r="D137" s="92"/>
+      <c r="D137" s="83"/>
       <c r="E137" s="56"/>
       <c r="F137" s="56"/>
       <c r="G137" s="56"/>
@@ -5403,7 +5493,7 @@
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
-      <c r="D138" s="92"/>
+      <c r="D138" s="83"/>
       <c r="E138" s="56"/>
       <c r="F138" s="56"/>
       <c r="G138" s="56"/>
@@ -5424,7 +5514,7 @@
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
-      <c r="D139" s="92"/>
+      <c r="D139" s="83"/>
       <c r="E139" s="56"/>
       <c r="F139" s="56"/>
       <c r="G139" s="56"/>
@@ -5445,7 +5535,7 @@
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
-      <c r="D140" s="92"/>
+      <c r="D140" s="83"/>
       <c r="E140" s="56"/>
       <c r="F140" s="56"/>
       <c r="G140" s="56"/>
@@ -5466,7 +5556,7 @@
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
-      <c r="D141" s="92"/>
+      <c r="D141" s="83"/>
       <c r="E141" s="56"/>
       <c r="F141" s="56"/>
       <c r="G141" s="56"/>
@@ -5487,7 +5577,7 @@
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
-      <c r="D142" s="92"/>
+      <c r="D142" s="83"/>
       <c r="E142" s="56"/>
       <c r="F142" s="56"/>
       <c r="G142" s="56"/>
@@ -5508,7 +5598,7 @@
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
-      <c r="D143" s="92"/>
+      <c r="D143" s="83"/>
       <c r="E143" s="56"/>
       <c r="F143" s="56"/>
       <c r="G143" s="56"/>
@@ -5529,7 +5619,7 @@
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
-      <c r="D144" s="92"/>
+      <c r="D144" s="83"/>
       <c r="E144" s="56"/>
       <c r="F144" s="56"/>
       <c r="G144" s="56"/>
@@ -5550,7 +5640,7 @@
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
-      <c r="D145" s="92"/>
+      <c r="D145" s="83"/>
       <c r="E145" s="56"/>
       <c r="F145" s="56"/>
       <c r="G145" s="56"/>
@@ -5571,7 +5661,7 @@
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
-      <c r="D146" s="92"/>
+      <c r="D146" s="83"/>
       <c r="E146" s="56"/>
       <c r="F146" s="56"/>
       <c r="G146" s="56"/>
@@ -5592,7 +5682,7 @@
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
-      <c r="D147" s="92"/>
+      <c r="D147" s="83"/>
       <c r="E147" s="56"/>
       <c r="F147" s="56"/>
       <c r="G147" s="56"/>
@@ -5613,7 +5703,7 @@
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
-      <c r="D148" s="92"/>
+      <c r="D148" s="83"/>
       <c r="E148" s="56"/>
       <c r="F148" s="56"/>
       <c r="G148" s="56"/>
@@ -5634,7 +5724,7 @@
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
-      <c r="D149" s="92"/>
+      <c r="D149" s="83"/>
       <c r="E149" s="56"/>
       <c r="F149" s="56"/>
       <c r="G149" s="56"/>
@@ -5655,7 +5745,7 @@
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
-      <c r="D150" s="92"/>
+      <c r="D150" s="83"/>
       <c r="E150" s="56"/>
       <c r="F150" s="56"/>
       <c r="G150" s="56"/>
@@ -5676,7 +5766,7 @@
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
-      <c r="D151" s="92"/>
+      <c r="D151" s="83"/>
       <c r="E151" s="56"/>
       <c r="F151" s="56"/>
       <c r="G151" s="56"/>
@@ -5697,7 +5787,7 @@
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
-      <c r="D152" s="92"/>
+      <c r="D152" s="83"/>
       <c r="E152" s="56"/>
       <c r="F152" s="56"/>
       <c r="G152" s="56"/>
@@ -5718,7 +5808,7 @@
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
-      <c r="D153" s="92"/>
+      <c r="D153" s="83"/>
       <c r="E153" s="56"/>
       <c r="F153" s="56"/>
       <c r="G153" s="56"/>
@@ -5739,7 +5829,7 @@
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
-      <c r="D154" s="92"/>
+      <c r="D154" s="83"/>
       <c r="E154" s="56"/>
       <c r="F154" s="56"/>
       <c r="G154" s="56"/>
@@ -5760,7 +5850,7 @@
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
-      <c r="D155" s="92"/>
+      <c r="D155" s="83"/>
       <c r="E155" s="56"/>
       <c r="F155" s="56"/>
       <c r="G155" s="56"/>
@@ -5781,7 +5871,7 @@
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
-      <c r="D156" s="92"/>
+      <c r="D156" s="83"/>
       <c r="E156" s="56"/>
       <c r="F156" s="56"/>
       <c r="G156" s="56"/>
@@ -5802,7 +5892,7 @@
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
-      <c r="D157" s="92"/>
+      <c r="D157" s="83"/>
       <c r="E157" s="56"/>
       <c r="F157" s="56"/>
       <c r="G157" s="56"/>
@@ -5823,7 +5913,7 @@
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
-      <c r="D158" s="92"/>
+      <c r="D158" s="83"/>
       <c r="E158" s="56"/>
       <c r="F158" s="56"/>
       <c r="G158" s="56"/>
@@ -5844,7 +5934,7 @@
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
-      <c r="D159" s="92"/>
+      <c r="D159" s="83"/>
       <c r="E159" s="56"/>
       <c r="F159" s="56"/>
       <c r="G159" s="56"/>
@@ -5865,7 +5955,7 @@
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
-      <c r="D160" s="92"/>
+      <c r="D160" s="83"/>
       <c r="E160" s="56"/>
       <c r="F160" s="56"/>
       <c r="G160" s="56"/>
@@ -5886,7 +5976,7 @@
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
-      <c r="D161" s="92"/>
+      <c r="D161" s="83"/>
       <c r="E161" s="56"/>
       <c r="F161" s="56"/>
       <c r="G161" s="56"/>
@@ -5907,7 +5997,7 @@
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
-      <c r="D162" s="92"/>
+      <c r="D162" s="83"/>
       <c r="E162" s="56"/>
       <c r="F162" s="56"/>
       <c r="G162" s="56"/>
@@ -5928,7 +6018,7 @@
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
-      <c r="D163" s="92"/>
+      <c r="D163" s="83"/>
       <c r="E163" s="56"/>
       <c r="F163" s="56"/>
       <c r="G163" s="56"/>
@@ -5949,7 +6039,7 @@
       <c r="A164" s="56"/>
       <c r="B164" s="56"/>
       <c r="C164" s="56"/>
-      <c r="D164" s="92"/>
+      <c r="D164" s="83"/>
       <c r="E164" s="56"/>
       <c r="F164" s="56"/>
       <c r="G164" s="56"/>
@@ -5970,7 +6060,7 @@
       <c r="A165" s="56"/>
       <c r="B165" s="56"/>
       <c r="C165" s="56"/>
-      <c r="D165" s="92"/>
+      <c r="D165" s="83"/>
       <c r="E165" s="56"/>
       <c r="F165" s="56"/>
       <c r="G165" s="56"/>
@@ -5991,7 +6081,7 @@
       <c r="A166" s="56"/>
       <c r="B166" s="56"/>
       <c r="C166" s="56"/>
-      <c r="D166" s="92"/>
+      <c r="D166" s="83"/>
       <c r="E166" s="56"/>
       <c r="F166" s="56"/>
       <c r="G166" s="56"/>
@@ -6012,7 +6102,7 @@
       <c r="A167" s="56"/>
       <c r="B167" s="56"/>
       <c r="C167" s="56"/>
-      <c r="D167" s="92"/>
+      <c r="D167" s="83"/>
       <c r="E167" s="56"/>
       <c r="F167" s="56"/>
       <c r="G167" s="56"/>
@@ -6033,7 +6123,7 @@
       <c r="A168" s="56"/>
       <c r="B168" s="56"/>
       <c r="C168" s="56"/>
-      <c r="D168" s="92"/>
+      <c r="D168" s="83"/>
       <c r="E168" s="56"/>
       <c r="F168" s="56"/>
       <c r="G168" s="56"/>
@@ -6054,7 +6144,7 @@
       <c r="A169" s="56"/>
       <c r="B169" s="56"/>
       <c r="C169" s="56"/>
-      <c r="D169" s="92"/>
+      <c r="D169" s="83"/>
       <c r="E169" s="56"/>
       <c r="F169" s="56"/>
       <c r="G169" s="56"/>
@@ -6075,7 +6165,7 @@
       <c r="A170" s="56"/>
       <c r="B170" s="56"/>
       <c r="C170" s="56"/>
-      <c r="D170" s="92"/>
+      <c r="D170" s="83"/>
       <c r="E170" s="56"/>
       <c r="F170" s="56"/>
       <c r="G170" s="56"/>
@@ -6095,37 +6185,50 @@
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2 N3:N6 N7:N79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N79">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B2 B3:B6 B7:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
       <formula1>"重要,不重要"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3:C6 C7:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1 M2 M3:M6 M7:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 I1 V1 G2 I2 V2 G3:G6 G7:G1048576 I3:I6 I7:I1048576 V3:V6 V7:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 V1:V1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E2 E3:E6 E7:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 P2 P3:P6 P7:P1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1 R2 R3:R6 R7:R1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="http://192.168.60.204/browse/PM-308"/>
+    <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="T2" r:id="rId2" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=5119"/>
+    <hyperlink ref="S3" r:id="rId3"/>
+    <hyperlink ref="S4" r:id="rId4"/>
+    <hyperlink ref="S5" r:id="rId5"/>
+    <hyperlink ref="S6" r:id="rId6"/>
+    <hyperlink ref="S7" r:id="rId7"/>
+    <hyperlink ref="S8" r:id="rId8"/>
+    <hyperlink ref="S9" r:id="rId9"/>
+    <hyperlink ref="S10" r:id="rId10"/>
+    <hyperlink ref="S11" r:id="rId11"/>
+    <hyperlink ref="T15" r:id="rId12" display="http://192.168.60.60:7086/www/index.php?m=bug&amp;f=view&amp;bugID=9646"/>
+    <hyperlink ref="S12" r:id="rId13"/>
+    <hyperlink ref="S13" r:id="rId14"/>
+    <hyperlink ref="S14" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -6300,19 +6403,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -6350,8 +6453,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="78"/>
-      <c r="B3" s="78"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -6363,8 +6466,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -6376,8 +6479,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -6389,8 +6492,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -6402,8 +6505,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -6415,8 +6518,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -6428,8 +6531,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -6441,8 +6544,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -6503,36 +6606,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -6817,36 +6920,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7131,36 +7234,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -7447,36 +7550,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="90" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="82"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="84"/>
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
